--- a/Others/House Rent Form.xlsx
+++ b/Others/House Rent Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBDD15C-6ED6-4DAA-80B9-FE90C5E90D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA847D-E605-4D1C-8FE3-6CA3E56E0448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>RENT RECEIPT</t>
   </si>
@@ -107,6 +107,15 @@
       </rPr>
       <t>ny (Mobile Handset)</t>
     </r>
+  </si>
+  <si>
+    <t>07.12.19</t>
+  </si>
+  <si>
+    <t>Bappy</t>
+  </si>
+  <si>
+    <t>Natore</t>
   </si>
 </sst>
 </file>
@@ -319,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -341,30 +350,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -384,10 +399,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,17 +420,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4848,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4887,56 +4902,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14">
@@ -4957,86 +4972,90 @@
     </row>
     <row r="6" spans="1:14" ht="25.35" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="29">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="25.35" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="21" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="25.35" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="25.35" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="35" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
@@ -5057,44 +5076,48 @@
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="43"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="K12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" customHeight="1">
@@ -5107,12 +5130,14 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="K13" s="38">
+        <v>1723665709</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
@@ -5132,41 +5157,41 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="41" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
@@ -5221,56 +5246,56 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="18.75">
       <c r="A25" s="5"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14">
@@ -5291,86 +5316,86 @@
     </row>
     <row r="27" spans="1:14" ht="21.6" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" ht="21.6" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="21" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="22"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="21.6" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="21.6" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="35" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14">
@@ -5391,44 +5416,44 @@
     </row>
     <row r="32" spans="1:14" ht="21.6" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="21.6" customHeight="1">
@@ -5444,9 +5469,9 @@
       <c r="J34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" thickBot="1">
@@ -5466,41 +5491,41 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="20"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="12"/>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="41" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
       <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1">
@@ -5521,12 +5546,28 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H23:M24"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="B2:E3"/>
@@ -5539,38 +5580,22 @@
     <mergeCell ref="H2:M3"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="H23:M24"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="K37:M37"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:M30"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
